--- a/Электромеханика/Калькуляторы.xlsx
+++ b/Электромеханика/Калькуляторы.xlsx
@@ -669,7 +669,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-e * k * 0.159</t>
+e/2pi * k</t>
         </r>
       </text>
     </comment>
@@ -721,7 +721,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-a / (k * 0.159)</t>
+a / (k * 1/2pi)</t>
         </r>
       </text>
     </comment>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2540,8 +2540,8 @@
         <v>40</v>
       </c>
       <c r="E37" s="9">
-        <f>B37*B39*0.159</f>
-        <v>6201</v>
+        <f>B37/(2*PI())*B39</f>
+        <v>6207.042780583919</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>42</v>
@@ -2561,8 +2561,8 @@
         <v>41</v>
       </c>
       <c r="E38" s="9">
-        <f>B38/(B39*0.159)</f>
-        <v>5660.3773584905657</v>
+        <f>B38/(B39*1/(2*PI()))</f>
+        <v>5654.8667764616275</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>39</v>
